--- a/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54CBD72-1F12-4A36-81E5-EACC4D5DD37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1FCD6-0722-45A1-9D43-4538DAC03B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="0" windowWidth="22695" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Element</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Freeze</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>给予目标状态【冻结：1】
 冰：给予目标状态【冻结：2】</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -146,10 +138,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATKBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Self</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,10 +191,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Shield</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NotEnemy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -221,10 +205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Armor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>为目标增加1护甲
 岩：为目标增加2护甲</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -318,10 +298,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>list,effect.EffectInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -343,6 +319,14 @@
   </si>
   <si>
     <t>*EffectInfos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.Element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,effect.EffectConstructProperties</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +720,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +728,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="8" width="17.875" customWidth="1"/>
@@ -757,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -787,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -802,26 +786,26 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -832,28 +816,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -861,16 +845,16 @@
         <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>7</v>
@@ -879,10 +863,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -891,19 +875,19 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -911,28 +895,28 @@
         <v>401</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="G7" s="3">
+        <v>603</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -941,19 +925,19 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="3">
+        <v>603</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -961,16 +945,16 @@
         <v>402</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
@@ -979,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,7 +975,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>7</v>
@@ -1000,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1011,16 +995,16 @@
         <v>403</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
@@ -1037,7 +1021,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
@@ -1053,16 +1037,16 @@
         <v>404</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>7</v>
@@ -1071,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1083,19 +1067,19 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1103,28 +1087,28 @@
         <v>405</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="G15" s="3">
+        <v>605</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1133,19 +1117,19 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="G16" s="3">
+        <v>605</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1153,16 +1137,16 @@
         <v>406</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>7</v>
@@ -1171,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -1183,19 +1167,19 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1203,16 +1187,16 @@
         <v>407</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>7</v>
@@ -1221,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1233,19 +1217,19 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1253,16 +1237,16 @@
         <v>408</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>7</v>
@@ -1271,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1283,19 +1267,19 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1303,26 +1287,26 @@
         <v>409</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1331,17 +1315,17 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1349,28 +1333,28 @@
         <v>410</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="G25" s="3">
+        <v>601</v>
       </c>
       <c r="H25" s="3">
         <v>5</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -1379,19 +1363,19 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="G26" s="3">
+        <v>601</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1399,16 +1383,16 @@
         <v>411</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>7</v>
@@ -1417,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -1429,19 +1413,19 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1449,45 +1433,45 @@
         <v>412</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="G29" s="3">
+        <v>600</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="G30" s="3">
+        <v>600</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1FCD6-0722-45A1-9D43-4538DAC03B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91799D1-3A7C-4317-94E2-B591643D0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -327,6 +327,22 @@
   </si>
   <si>
     <t>list,effect.EffectConstructProperties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card.CardType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -717,50 +733,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="2" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -768,47 +787,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,668 +838,722 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>401</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>603</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>603</v>
       </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>402</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>403</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>404</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>405</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>605</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>605</v>
       </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>406</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>407</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>408</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>409</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <v>3</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>410</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>601</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>5</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>601</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>411</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>412</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="3" t="s">
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>600</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91799D1-3A7C-4317-94E2-B591643D0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAED58D4-FB32-4E8E-949D-83BE030FD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mono</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -343,6 +339,10 @@
   </si>
   <si>
     <t>Spell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotSelf</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -787,19 +787,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -808,26 +808,26 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -838,31 +838,31 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -870,16 +870,16 @@
         <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
@@ -891,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -913,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -924,19 +924,19 @@
         <v>401</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3">
         <v>603</v>
@@ -945,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3">
         <v>603</v>
@@ -967,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -978,16 +978,16 @@
         <v>402</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
@@ -999,10 +999,10 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1021,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1032,19 +1032,19 @@
         <v>403</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
@@ -1062,7 +1062,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
@@ -1078,16 +1078,16 @@
         <v>404</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
@@ -1099,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1115,16 +1115,16 @@
         <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1132,19 +1132,19 @@
         <v>405</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3">
         <v>605</v>
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3">
         <v>605</v>
@@ -1175,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1186,16 +1186,16 @@
         <v>406</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -1207,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -1223,16 +1223,16 @@
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="3">
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1240,16 +1240,16 @@
         <v>407</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -1261,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -1277,16 +1277,16 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1294,16 +1294,16 @@
         <v>408</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -1331,16 +1331,16 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1348,29 +1348,29 @@
         <v>409</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -1380,17 +1380,17 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1398,19 +1398,19 @@
         <v>410</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3">
         <v>601</v>
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3">
         <v>601</v>
@@ -1441,10 +1441,10 @@
         <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1452,16 +1452,16 @@
         <v>411</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1473,10 +1473,10 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1489,16 +1489,16 @@
         <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -1506,19 +1506,19 @@
         <v>412</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3">
         <v>600</v>
@@ -1527,15 +1527,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="3">
         <v>600</v>
@@ -1544,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/SpellCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAED58D4-FB32-4E8E-949D-83BE030FD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AA690-0DD1-436D-A354-8CED3EFDAE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="4290" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -343,6 +343,22 @@
   </si>
   <si>
     <t>NotSelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>210​00003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>210​00005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>210​00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>210​00000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -735,24 +751,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -779,7 +795,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -806,7 +822,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -830,7 +846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -865,9 +881,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>400</v>
+        <v>13000000</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>71</v>
@@ -897,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -919,9 +935,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <v>401</v>
+        <v>13000001</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>71</v>
@@ -938,8 +954,8 @@
       <c r="G7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3">
-        <v>603</v>
+      <c r="H7" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -951,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -960,8 +976,8 @@
       <c r="G8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="3">
-        <v>603</v>
+      <c r="H8" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -973,9 +989,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>402</v>
+        <v>13000002</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>71</v>
@@ -1005,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1027,9 +1043,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <v>403</v>
+        <v>13000003</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>71</v>
@@ -1055,7 +1071,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1073,9 +1089,9 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <v>404</v>
+        <v>13000004</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -1105,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1127,9 +1143,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>405</v>
+        <v>13000005</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>71</v>
@@ -1146,8 +1162,8 @@
       <c r="G15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="3">
-        <v>605</v>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -1159,7 +1175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1168,8 +1184,8 @@
       <c r="G16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="3">
-        <v>605</v>
+      <c r="H16" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -1181,9 +1197,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
-        <v>406</v>
+        <v>13000006</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>71</v>
@@ -1213,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1235,9 +1251,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>407</v>
+        <v>13000007</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>71</v>
@@ -1267,7 +1283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1289,9 +1305,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <v>408</v>
+        <v>13000008</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>71</v>
@@ -1321,7 +1337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1343,9 +1359,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <v>409</v>
+        <v>13000009</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>71</v>
@@ -1373,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1393,9 +1409,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <v>410</v>
+        <v>13000010</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>71</v>
@@ -1412,8 +1428,8 @@
       <c r="G25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="3">
-        <v>601</v>
+      <c r="H25" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I25" s="3">
         <v>5</v>
@@ -1425,7 +1441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1434,8 +1450,8 @@
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="3">
-        <v>601</v>
+      <c r="H26" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I26" s="3">
         <v>8</v>
@@ -1447,9 +1463,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>411</v>
+        <v>13000011</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>71</v>
@@ -1479,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1501,9 +1517,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
-        <v>412</v>
+        <v>13000012</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>71</v>
@@ -1520,8 +1536,8 @@
       <c r="G29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="3">
-        <v>600</v>
+      <c r="H29" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -1533,12 +1549,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
       <c r="G30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="3">
-        <v>600</v>
+      <c r="H30" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
